--- a/docs/source/recursos/forestal/tabla_cat_fv_for_mad_bio_cobertura_usv_17cats.xlsx
+++ b/docs/source/recursos/forestal/tabla_cat_fv_for_mad_bio_cobertura_usv_17cats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\forestal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\forestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF6B62-34B9-4E8C-9FF5-2E4BF0D822EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE870774-4BB6-4F31-ACAA-5B6A3156D5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Palmar inducido</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Muy baja</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,13 +1085,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,13 +1127,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
